--- a/test/ゲスト利用記録.xlsx
+++ b/test/ゲスト利用記録.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$B$1:$H$44</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$B$1:$G$44</definedName>
   </definedNames>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>日付</t>
     <rPh sb="0" eb="2">
@@ -57,6 +57,13 @@
     <t>ゲスト利用記録</t>
     <rPh sb="3" eb="7">
       <t>リヨウキロク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2017/12/07版</t>
+    <rPh sb="10" eb="11">
+      <t>バン</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -99,7 +106,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="33">
     <border>
       <left/>
       <right/>
@@ -108,12 +115,172 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
         <color auto="1"/>
       </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="dotted">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="dotted">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="medium">
         <color auto="1"/>
       </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="dotted">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="dotted">
+        <color auto="1"/>
+      </top>
+      <bottom style="dotted">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="dotted">
+        <color auto="1"/>
+      </top>
+      <bottom style="dotted">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="dotted">
+        <color auto="1"/>
+      </top>
+      <bottom style="dotted">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="dotted">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="dotted">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="dotted">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="dotted">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="dotted">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="medium">
         <color auto="1"/>
       </top>
@@ -124,33 +291,169 @@
     </border>
     <border>
       <left/>
-      <right/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
       <top style="medium">
         <color auto="1"/>
       </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="dotted">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="dotted">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="dotted">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="dotted">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top style="medium">
         <color auto="1"/>
       </top>
+      <bottom style="dotted">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="dotted">
+        <color auto="1"/>
+      </top>
+      <bottom style="dotted">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="dotted">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="dotted">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="dotted">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="dotted">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="dotted">
+        <color auto="1"/>
+      </top>
       <bottom style="medium">
         <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
+      <left/>
+      <right/>
       <top style="medium">
         <color auto="1"/>
       </top>
@@ -160,132 +463,58 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="dotted">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="dotted">
         <color auto="1"/>
       </top>
-      <bottom style="dotted">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="dotted">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="dotted">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="dotted">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="dotted">
-        <color auto="1"/>
-      </top>
-      <bottom style="dotted">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="dotted">
-        <color auto="1"/>
-      </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="dotted">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="dotted">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="dotted">
-        <color auto="1"/>
-      </top>
-      <bottom/>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -309,28 +538,83 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -615,429 +899,394 @@
   </sheetPr>
   <dimension ref="B1:I45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="20" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="7.5703125" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" customWidth="1"/>
     <col min="3" max="3" width="12.140625" customWidth="1"/>
+    <col min="7" max="7" width="16.28515625" customWidth="1"/>
     <col min="8" max="8" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-    </row>
-    <row r="2" spans="2:8" ht="21" thickBot="1" x14ac:dyDescent="0.35"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="19"/>
+    </row>
+    <row r="2" spans="2:8" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G2" t="s">
+        <v>5</v>
+      </c>
+    </row>
     <row r="3" spans="2:8" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="12" t="s">
+      <c r="E3" s="18"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="34" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="21"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="10"/>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="10"/>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="10"/>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="13"/>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="7"/>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B10" s="16"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="22"/>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B11" s="9"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="10"/>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B12" s="9"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="10"/>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B13" s="17"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="23"/>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B14" s="7"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="7"/>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B15" s="15"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="15"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="22"/>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B18" s="14"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="14"/>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B20" s="15"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="15"/>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B23" s="14"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="14"/>
-      <c r="H23" s="14"/>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B25" s="15"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="15"/>
-      <c r="H25" s="15"/>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
-    </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
-    </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B28" s="14"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14"/>
-      <c r="G28" s="14"/>
-      <c r="H28" s="14"/>
-    </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B29" s="8"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="8"/>
-      <c r="G29" s="8"/>
-      <c r="H29" s="8"/>
-    </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B30" s="15"/>
-      <c r="C30" s="15"/>
-      <c r="D30" s="15"/>
-      <c r="E30" s="15"/>
-      <c r="F30" s="15"/>
-      <c r="G30" s="15"/>
-      <c r="H30" s="15"/>
-    </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B31" s="5"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="5"/>
-      <c r="H31" s="5"/>
-    </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B32" s="5"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
-      <c r="F32" s="5"/>
-      <c r="G32" s="5"/>
-      <c r="H32" s="5"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="10"/>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B17" s="8"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="10"/>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B18" s="17"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="33"/>
+      <c r="F18" s="29"/>
+      <c r="G18" s="23"/>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B19" s="5"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="7"/>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B20" s="16"/>
+      <c r="C20" s="28"/>
+      <c r="D20" s="28"/>
+      <c r="E20" s="32"/>
+      <c r="F20" s="28"/>
+      <c r="G20" s="22"/>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B21" s="8"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="10"/>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B22" s="8"/>
+      <c r="C22" s="25"/>
+      <c r="D22" s="25"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="10"/>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B23" s="17"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="29"/>
+      <c r="E23" s="33"/>
+      <c r="F23" s="29"/>
+      <c r="G23" s="23"/>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B24" s="5"/>
+      <c r="C24" s="27"/>
+      <c r="D24" s="27"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="27"/>
+      <c r="G24" s="7"/>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B25" s="16"/>
+      <c r="C25" s="28"/>
+      <c r="D25" s="28"/>
+      <c r="E25" s="32"/>
+      <c r="F25" s="28"/>
+      <c r="G25" s="22"/>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B26" s="8"/>
+      <c r="C26" s="25"/>
+      <c r="D26" s="25"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="25"/>
+      <c r="G26" s="10"/>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B27" s="8"/>
+      <c r="C27" s="25"/>
+      <c r="D27" s="25"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="25"/>
+      <c r="G27" s="10"/>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B28" s="17"/>
+      <c r="C28" s="29"/>
+      <c r="D28" s="29"/>
+      <c r="E28" s="33"/>
+      <c r="F28" s="29"/>
+      <c r="G28" s="23"/>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B29" s="5"/>
+      <c r="C29" s="27"/>
+      <c r="D29" s="27"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="27"/>
+      <c r="G29" s="7"/>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B30" s="16"/>
+      <c r="C30" s="28"/>
+      <c r="D30" s="28"/>
+      <c r="E30" s="32"/>
+      <c r="F30" s="28"/>
+      <c r="G30" s="22"/>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B31" s="8"/>
+      <c r="C31" s="25"/>
+      <c r="D31" s="25"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="25"/>
+      <c r="G31" s="10"/>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B32" s="8"/>
+      <c r="C32" s="25"/>
+      <c r="D32" s="25"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="25"/>
+      <c r="G32" s="10"/>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B33" s="14"/>
-      <c r="C33" s="14"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="14"/>
-      <c r="F33" s="14"/>
-      <c r="G33" s="14"/>
-      <c r="H33" s="14"/>
+      <c r="B33" s="17"/>
+      <c r="C33" s="29"/>
+      <c r="D33" s="29"/>
+      <c r="E33" s="33"/>
+      <c r="F33" s="29"/>
+      <c r="G33" s="23"/>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B34" s="8"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="8"/>
-      <c r="F34" s="8"/>
-      <c r="G34" s="8"/>
-      <c r="H34" s="8"/>
+      <c r="B34" s="5"/>
+      <c r="C34" s="27"/>
+      <c r="D34" s="27"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="27"/>
+      <c r="G34" s="7"/>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B35" s="15"/>
-      <c r="C35" s="15"/>
-      <c r="D35" s="15"/>
-      <c r="E35" s="15"/>
-      <c r="F35" s="15"/>
-      <c r="G35" s="15"/>
-      <c r="H35" s="15"/>
+      <c r="B35" s="16"/>
+      <c r="C35" s="28"/>
+      <c r="D35" s="28"/>
+      <c r="E35" s="32"/>
+      <c r="F35" s="28"/>
+      <c r="G35" s="22"/>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B36" s="5"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="5"/>
-      <c r="F36" s="5"/>
-      <c r="G36" s="5"/>
-      <c r="H36" s="5"/>
+      <c r="B36" s="8"/>
+      <c r="C36" s="25"/>
+      <c r="D36" s="25"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="25"/>
+      <c r="G36" s="10"/>
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B37" s="5"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="5"/>
-      <c r="E37" s="5"/>
-      <c r="F37" s="5"/>
-      <c r="G37" s="5"/>
-      <c r="H37" s="5"/>
+      <c r="B37" s="8"/>
+      <c r="C37" s="25"/>
+      <c r="D37" s="25"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="25"/>
+      <c r="G37" s="10"/>
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B38" s="14"/>
-      <c r="C38" s="14"/>
-      <c r="D38" s="14"/>
-      <c r="E38" s="14"/>
-      <c r="F38" s="14"/>
-      <c r="G38" s="14"/>
-      <c r="H38" s="14"/>
+      <c r="B38" s="17"/>
+      <c r="C38" s="29"/>
+      <c r="D38" s="29"/>
+      <c r="E38" s="33"/>
+      <c r="F38" s="29"/>
+      <c r="G38" s="23"/>
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B39" s="8"/>
-      <c r="C39" s="8"/>
-      <c r="D39" s="8"/>
-      <c r="E39" s="8"/>
-      <c r="F39" s="8"/>
-      <c r="G39" s="8"/>
-      <c r="H39" s="8"/>
+      <c r="B39" s="5"/>
+      <c r="C39" s="27"/>
+      <c r="D39" s="27"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="27"/>
+      <c r="G39" s="7"/>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B40" s="15"/>
-      <c r="C40" s="15"/>
-      <c r="D40" s="15"/>
-      <c r="E40" s="15"/>
-      <c r="F40" s="15"/>
-      <c r="G40" s="15"/>
-      <c r="H40" s="15"/>
+      <c r="B40" s="16"/>
+      <c r="C40" s="28"/>
+      <c r="D40" s="28"/>
+      <c r="E40" s="32"/>
+      <c r="F40" s="28"/>
+      <c r="G40" s="22"/>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B41" s="5"/>
-      <c r="C41" s="5"/>
-      <c r="D41" s="5"/>
-      <c r="E41" s="5"/>
-      <c r="F41" s="5"/>
-      <c r="G41" s="5"/>
-      <c r="H41" s="5"/>
+      <c r="B41" s="8"/>
+      <c r="C41" s="25"/>
+      <c r="D41" s="25"/>
+      <c r="E41" s="9"/>
+      <c r="F41" s="25"/>
+      <c r="G41" s="10"/>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B42" s="5"/>
-      <c r="C42" s="5"/>
-      <c r="D42" s="5"/>
-      <c r="E42" s="5"/>
-      <c r="F42" s="5"/>
-      <c r="G42" s="5"/>
-      <c r="H42" s="5"/>
+      <c r="B42" s="8"/>
+      <c r="C42" s="25"/>
+      <c r="D42" s="25"/>
+      <c r="E42" s="9"/>
+      <c r="F42" s="25"/>
+      <c r="G42" s="10"/>
     </row>
     <row r="43" spans="2:9" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B43" s="14"/>
-      <c r="C43" s="14"/>
-      <c r="D43" s="14"/>
-      <c r="E43" s="14"/>
-      <c r="F43" s="14"/>
-      <c r="G43" s="14"/>
-      <c r="H43" s="14"/>
+      <c r="B43" s="17"/>
+      <c r="C43" s="30"/>
+      <c r="D43" s="30"/>
+      <c r="E43" s="33"/>
+      <c r="F43" s="30"/>
+      <c r="G43" s="23"/>
+      <c r="H43" s="1"/>
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B44" s="2"/>
-      <c r="C44" s="2"/>
-      <c r="D44" s="2"/>
-      <c r="E44" s="2"/>
-      <c r="F44" s="2"/>
-      <c r="G44" s="2"/>
-      <c r="H44" s="2"/>
+      <c r="B44" s="3"/>
+      <c r="C44" s="3"/>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="3"/>
+      <c r="G44" s="3"/>
+      <c r="H44" s="4"/>
     </row>
     <row r="45" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B45" s="3"/>
-      <c r="C45" s="3"/>
-      <c r="D45" s="3"/>
-      <c r="E45" s="3"/>
-      <c r="F45" s="3"/>
-      <c r="G45" s="3"/>
-      <c r="H45" s="3"/>
-      <c r="I45" s="1"/>
+      <c r="B45" s="4"/>
+      <c r="C45" s="4"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="4"/>
+      <c r="H45" s="4"/>
+      <c r="I45" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="B1:G1"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/test/ゲスト利用記録.xlsx
+++ b/test/ゲスト利用記録.xlsx
@@ -61,7 +61,7 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>2017/12/07版</t>
+    <t>2017/12/22版ver3</t>
     <rPh sb="10" eb="11">
       <t>バン</t>
     </rPh>
@@ -547,9 +547,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -557,9 +554,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -608,13 +602,19 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -912,15 +912,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="19"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="17"/>
     </row>
     <row r="2" spans="2:8" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G2" t="s">
@@ -928,340 +928,340 @@
       </c>
     </row>
     <row r="3" spans="2:8" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="36" t="s">
+      <c r="C3" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="37" t="s">
+      <c r="D3" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="18"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="34" t="s">
+      <c r="E3" s="35"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="32" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B4" s="20"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="21"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="19"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B5" s="8"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
       <c r="E5" s="9"/>
-      <c r="F5" s="25"/>
+      <c r="F5" s="23"/>
       <c r="G5" s="10"/>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B6" s="8"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
       <c r="E6" s="9"/>
-      <c r="F6" s="25"/>
+      <c r="F6" s="23"/>
       <c r="G6" s="10"/>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B7" s="8"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
       <c r="E7" s="9"/>
-      <c r="F7" s="25"/>
+      <c r="F7" s="23"/>
       <c r="G7" s="10"/>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B8" s="11"/>
-      <c r="C8" s="26"/>
-      <c r="D8" s="26"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="24"/>
       <c r="E8" s="12"/>
-      <c r="F8" s="26"/>
+      <c r="F8" s="24"/>
       <c r="G8" s="13"/>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B9" s="5"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="27"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
       <c r="E9" s="6"/>
-      <c r="F9" s="27"/>
+      <c r="F9" s="25"/>
       <c r="G9" s="7"/>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B10" s="16"/>
-      <c r="C10" s="28"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="22"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="20"/>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B11" s="8"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="25"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
       <c r="E11" s="9"/>
-      <c r="F11" s="25"/>
+      <c r="F11" s="23"/>
       <c r="G11" s="10"/>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B12" s="8"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="25"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
       <c r="E12" s="9"/>
-      <c r="F12" s="25"/>
+      <c r="F12" s="23"/>
       <c r="G12" s="10"/>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B13" s="17"/>
-      <c r="C13" s="29"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="33"/>
-      <c r="F13" s="29"/>
-      <c r="G13" s="23"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="21"/>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B14" s="5"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="27"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="25"/>
       <c r="E14" s="6"/>
-      <c r="F14" s="27"/>
+      <c r="F14" s="25"/>
       <c r="G14" s="7"/>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B15" s="16"/>
-      <c r="C15" s="28"/>
-      <c r="D15" s="28"/>
-      <c r="E15" s="32"/>
-      <c r="F15" s="28"/>
-      <c r="G15" s="22"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="20"/>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B16" s="8"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="25"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
       <c r="E16" s="9"/>
-      <c r="F16" s="25"/>
+      <c r="F16" s="23"/>
       <c r="G16" s="10"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B17" s="8"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="25"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
       <c r="E17" s="9"/>
-      <c r="F17" s="25"/>
+      <c r="F17" s="23"/>
       <c r="G17" s="10"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B18" s="17"/>
-      <c r="C18" s="29"/>
-      <c r="D18" s="29"/>
-      <c r="E18" s="33"/>
-      <c r="F18" s="29"/>
-      <c r="G18" s="23"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="21"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B19" s="5"/>
-      <c r="C19" s="27"/>
-      <c r="D19" s="27"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="25"/>
       <c r="E19" s="6"/>
-      <c r="F19" s="27"/>
+      <c r="F19" s="25"/>
       <c r="G19" s="7"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B20" s="16"/>
-      <c r="C20" s="28"/>
-      <c r="D20" s="28"/>
-      <c r="E20" s="32"/>
-      <c r="F20" s="28"/>
-      <c r="G20" s="22"/>
+      <c r="B20" s="15"/>
+      <c r="C20" s="26"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="30"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="20"/>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B21" s="8"/>
-      <c r="C21" s="25"/>
-      <c r="D21" s="25"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
       <c r="E21" s="9"/>
-      <c r="F21" s="25"/>
+      <c r="F21" s="23"/>
       <c r="G21" s="10"/>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B22" s="8"/>
-      <c r="C22" s="25"/>
-      <c r="D22" s="25"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="23"/>
       <c r="E22" s="9"/>
-      <c r="F22" s="25"/>
+      <c r="F22" s="23"/>
       <c r="G22" s="10"/>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B23" s="17"/>
-      <c r="C23" s="29"/>
-      <c r="D23" s="29"/>
-      <c r="E23" s="33"/>
-      <c r="F23" s="29"/>
-      <c r="G23" s="23"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="27"/>
+      <c r="E23" s="31"/>
+      <c r="F23" s="27"/>
+      <c r="G23" s="21"/>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B24" s="5"/>
-      <c r="C24" s="27"/>
-      <c r="D24" s="27"/>
+      <c r="C24" s="25"/>
+      <c r="D24" s="25"/>
       <c r="E24" s="6"/>
-      <c r="F24" s="27"/>
+      <c r="F24" s="25"/>
       <c r="G24" s="7"/>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B25" s="16"/>
-      <c r="C25" s="28"/>
-      <c r="D25" s="28"/>
-      <c r="E25" s="32"/>
-      <c r="F25" s="28"/>
-      <c r="G25" s="22"/>
+      <c r="B25" s="15"/>
+      <c r="C25" s="26"/>
+      <c r="D25" s="26"/>
+      <c r="E25" s="30"/>
+      <c r="F25" s="26"/>
+      <c r="G25" s="20"/>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B26" s="8"/>
-      <c r="C26" s="25"/>
-      <c r="D26" s="25"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="23"/>
       <c r="E26" s="9"/>
-      <c r="F26" s="25"/>
+      <c r="F26" s="23"/>
       <c r="G26" s="10"/>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B27" s="8"/>
-      <c r="C27" s="25"/>
-      <c r="D27" s="25"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="23"/>
       <c r="E27" s="9"/>
-      <c r="F27" s="25"/>
+      <c r="F27" s="23"/>
       <c r="G27" s="10"/>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B28" s="17"/>
-      <c r="C28" s="29"/>
-      <c r="D28" s="29"/>
-      <c r="E28" s="33"/>
-      <c r="F28" s="29"/>
-      <c r="G28" s="23"/>
+      <c r="B28" s="16"/>
+      <c r="C28" s="27"/>
+      <c r="D28" s="27"/>
+      <c r="E28" s="31"/>
+      <c r="F28" s="27"/>
+      <c r="G28" s="21"/>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B29" s="5"/>
-      <c r="C29" s="27"/>
-      <c r="D29" s="27"/>
+      <c r="C29" s="25"/>
+      <c r="D29" s="25"/>
       <c r="E29" s="6"/>
-      <c r="F29" s="27"/>
+      <c r="F29" s="25"/>
       <c r="G29" s="7"/>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B30" s="16"/>
-      <c r="C30" s="28"/>
-      <c r="D30" s="28"/>
-      <c r="E30" s="32"/>
-      <c r="F30" s="28"/>
-      <c r="G30" s="22"/>
+      <c r="B30" s="15"/>
+      <c r="C30" s="26"/>
+      <c r="D30" s="26"/>
+      <c r="E30" s="30"/>
+      <c r="F30" s="26"/>
+      <c r="G30" s="20"/>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B31" s="8"/>
-      <c r="C31" s="25"/>
-      <c r="D31" s="25"/>
+      <c r="C31" s="23"/>
+      <c r="D31" s="23"/>
       <c r="E31" s="9"/>
-      <c r="F31" s="25"/>
+      <c r="F31" s="23"/>
       <c r="G31" s="10"/>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B32" s="8"/>
-      <c r="C32" s="25"/>
-      <c r="D32" s="25"/>
+      <c r="C32" s="23"/>
+      <c r="D32" s="23"/>
       <c r="E32" s="9"/>
-      <c r="F32" s="25"/>
+      <c r="F32" s="23"/>
       <c r="G32" s="10"/>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B33" s="17"/>
-      <c r="C33" s="29"/>
-      <c r="D33" s="29"/>
-      <c r="E33" s="33"/>
-      <c r="F33" s="29"/>
-      <c r="G33" s="23"/>
+      <c r="B33" s="16"/>
+      <c r="C33" s="27"/>
+      <c r="D33" s="27"/>
+      <c r="E33" s="31"/>
+      <c r="F33" s="27"/>
+      <c r="G33" s="21"/>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B34" s="5"/>
-      <c r="C34" s="27"/>
-      <c r="D34" s="27"/>
+      <c r="C34" s="25"/>
+      <c r="D34" s="25"/>
       <c r="E34" s="6"/>
-      <c r="F34" s="27"/>
+      <c r="F34" s="25"/>
       <c r="G34" s="7"/>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B35" s="16"/>
-      <c r="C35" s="28"/>
-      <c r="D35" s="28"/>
-      <c r="E35" s="32"/>
-      <c r="F35" s="28"/>
-      <c r="G35" s="22"/>
+      <c r="B35" s="15"/>
+      <c r="C35" s="26"/>
+      <c r="D35" s="26"/>
+      <c r="E35" s="30"/>
+      <c r="F35" s="26"/>
+      <c r="G35" s="20"/>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B36" s="8"/>
-      <c r="C36" s="25"/>
-      <c r="D36" s="25"/>
+      <c r="C36" s="23"/>
+      <c r="D36" s="23"/>
       <c r="E36" s="9"/>
-      <c r="F36" s="25"/>
+      <c r="F36" s="23"/>
       <c r="G36" s="10"/>
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B37" s="8"/>
-      <c r="C37" s="25"/>
-      <c r="D37" s="25"/>
+      <c r="C37" s="23"/>
+      <c r="D37" s="23"/>
       <c r="E37" s="9"/>
-      <c r="F37" s="25"/>
+      <c r="F37" s="23"/>
       <c r="G37" s="10"/>
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B38" s="17"/>
-      <c r="C38" s="29"/>
-      <c r="D38" s="29"/>
-      <c r="E38" s="33"/>
-      <c r="F38" s="29"/>
-      <c r="G38" s="23"/>
+      <c r="B38" s="16"/>
+      <c r="C38" s="27"/>
+      <c r="D38" s="27"/>
+      <c r="E38" s="31"/>
+      <c r="F38" s="27"/>
+      <c r="G38" s="21"/>
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B39" s="5"/>
-      <c r="C39" s="27"/>
-      <c r="D39" s="27"/>
+      <c r="C39" s="25"/>
+      <c r="D39" s="25"/>
       <c r="E39" s="6"/>
-      <c r="F39" s="27"/>
+      <c r="F39" s="25"/>
       <c r="G39" s="7"/>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B40" s="16"/>
-      <c r="C40" s="28"/>
-      <c r="D40" s="28"/>
-      <c r="E40" s="32"/>
-      <c r="F40" s="28"/>
-      <c r="G40" s="22"/>
+      <c r="B40" s="15"/>
+      <c r="C40" s="26"/>
+      <c r="D40" s="26"/>
+      <c r="E40" s="30"/>
+      <c r="F40" s="26"/>
+      <c r="G40" s="20"/>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B41" s="8"/>
-      <c r="C41" s="25"/>
-      <c r="D41" s="25"/>
+      <c r="C41" s="23"/>
+      <c r="D41" s="23"/>
       <c r="E41" s="9"/>
-      <c r="F41" s="25"/>
+      <c r="F41" s="23"/>
       <c r="G41" s="10"/>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B42" s="8"/>
-      <c r="C42" s="25"/>
-      <c r="D42" s="25"/>
+      <c r="C42" s="23"/>
+      <c r="D42" s="23"/>
       <c r="E42" s="9"/>
-      <c r="F42" s="25"/>
+      <c r="F42" s="23"/>
       <c r="G42" s="10"/>
     </row>
     <row r="43" spans="2:9" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B43" s="17"/>
-      <c r="C43" s="30"/>
-      <c r="D43" s="30"/>
-      <c r="E43" s="33"/>
-      <c r="F43" s="30"/>
-      <c r="G43" s="23"/>
+      <c r="B43" s="16"/>
+      <c r="C43" s="28"/>
+      <c r="D43" s="28"/>
+      <c r="E43" s="31"/>
+      <c r="F43" s="28"/>
+      <c r="G43" s="21"/>
       <c r="H43" s="1"/>
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.3">
